--- a/Load_Sets/MuHa.xlsx
+++ b/Load_Sets/MuHa.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="635">
   <si>
     <t>Image_Index</t>
   </si>
@@ -886,6 +886,1050 @@
   </si>
   <si>
     <t>2025-11-29T14:47:32</t>
+  </si>
+  <si>
+    <t>image_154.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T14:52:54</t>
+  </si>
+  <si>
+    <t>image_155.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T14:57:20</t>
+  </si>
+  <si>
+    <t>image_156.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T14:59:16</t>
+  </si>
+  <si>
+    <t>image_157.png</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>2025-11-29T15:01:10</t>
+  </si>
+  <si>
+    <t>image_158.png</t>
+  </si>
+  <si>
+    <t>2025-07-04</t>
+  </si>
+  <si>
+    <t>2025-11-29T15:03:35</t>
+  </si>
+  <si>
+    <t>image_159.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T15:04:03</t>
+  </si>
+  <si>
+    <t>image_160.png</t>
+  </si>
+  <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
+    <t>2025-11-29T15:04:43</t>
+  </si>
+  <si>
+    <t>image_161.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T15:06:06</t>
+  </si>
+  <si>
+    <t>image_162.png</t>
+  </si>
+  <si>
+    <t>2025-07-05</t>
+  </si>
+  <si>
+    <t>2025-11-29T15:06:25</t>
+  </si>
+  <si>
+    <t>image_163.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T15:07:53</t>
+  </si>
+  <si>
+    <t>image_164.png</t>
+  </si>
+  <si>
+    <t>2025-08-07</t>
+  </si>
+  <si>
+    <t>2025-11-29T15:11:06</t>
+  </si>
+  <si>
+    <t>image_166.png</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>2025-11-29T15:12:38</t>
+  </si>
+  <si>
+    <t>image_167.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T15:13:31</t>
+  </si>
+  <si>
+    <t>image_168.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T15:14:11</t>
+  </si>
+  <si>
+    <t>image_169.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T15:14:37</t>
+  </si>
+  <si>
+    <t>image_170.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T15:15:35</t>
+  </si>
+  <si>
+    <t>image_171.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T15:16:02</t>
+  </si>
+  <si>
+    <t>image_172.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T15:16:25</t>
+  </si>
+  <si>
+    <t>image_173.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T15:19:36</t>
+  </si>
+  <si>
+    <t>2025-11-29T15:19:41</t>
+  </si>
+  <si>
+    <t>image_174.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T15:43:42</t>
+  </si>
+  <si>
+    <t>image_175.png</t>
+  </si>
+  <si>
+    <t>2025-07-16</t>
+  </si>
+  <si>
+    <t>2025-11-29T15:47:18</t>
+  </si>
+  <si>
+    <t>image_176.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:04:40</t>
+  </si>
+  <si>
+    <t>image_177.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:04:52</t>
+  </si>
+  <si>
+    <t>image_178.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:05:47</t>
+  </si>
+  <si>
+    <t>image_179.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:06:24</t>
+  </si>
+  <si>
+    <t>image_180.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:06:34</t>
+  </si>
+  <si>
+    <t>image_181.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:10:03</t>
+  </si>
+  <si>
+    <t>image_182.png</t>
+  </si>
+  <si>
+    <t>Implantat Gds p.e. Masktbmi</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:10:52</t>
+  </si>
+  <si>
+    <t>image_183.png</t>
+  </si>
+  <si>
+    <t>2025-07-18</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:11:11</t>
+  </si>
+  <si>
+    <t>image_184.png</t>
+  </si>
+  <si>
+    <t>Mastektomie links + Implantat</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:12:33</t>
+  </si>
+  <si>
+    <t>image_185.png</t>
+  </si>
+  <si>
+    <t>2025-07-19</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:13:21</t>
+  </si>
+  <si>
+    <t>image_186.png</t>
+  </si>
+  <si>
+    <t>2025-07-23</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:13:44</t>
+  </si>
+  <si>
+    <t>image_187.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:15:41</t>
+  </si>
+  <si>
+    <t>image_188.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:16:20</t>
+  </si>
+  <si>
+    <t>image_189.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:16:45</t>
+  </si>
+  <si>
+    <t>image_190.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:17:12</t>
+  </si>
+  <si>
+    <t>image_191.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:17:29</t>
+  </si>
+  <si>
+    <t>image_192.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:17:50</t>
+  </si>
+  <si>
+    <t>image_193.png</t>
+  </si>
+  <si>
+    <t>2025-07-29</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:18:10</t>
+  </si>
+  <si>
+    <t>image_194.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:18:39</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:18:43</t>
+  </si>
+  <si>
+    <t>image_195.png</t>
+  </si>
+  <si>
+    <t>Ablatio li.</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:19:42</t>
+  </si>
+  <si>
+    <t>image_196.png</t>
+  </si>
+  <si>
+    <t>2025-07-31</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:20:02</t>
+  </si>
+  <si>
+    <t>image_197.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:20:19</t>
+  </si>
+  <si>
+    <t>image_198.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:20:29</t>
+  </si>
+  <si>
+    <t>image_199.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:21:40</t>
+  </si>
+  <si>
+    <t>image_200.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:21:54</t>
+  </si>
+  <si>
+    <t>image_201.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:22:27</t>
+  </si>
+  <si>
+    <t>image_202.png</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:23:03</t>
+  </si>
+  <si>
+    <t>image_203.png</t>
+  </si>
+  <si>
+    <t>2025-05-06</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:23:27</t>
+  </si>
+  <si>
+    <t>image_204.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:26:05</t>
+  </si>
+  <si>
+    <t>image_205.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:26:27</t>
+  </si>
+  <si>
+    <t>image_206.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:26:42</t>
+  </si>
+  <si>
+    <t>image_207.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:28:26</t>
+  </si>
+  <si>
+    <t>image_208.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:28:55</t>
+  </si>
+  <si>
+    <t>image_209.png</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:29:21</t>
+  </si>
+  <si>
+    <t>image_210.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:30:10</t>
+  </si>
+  <si>
+    <t>image_211.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:30:29</t>
+  </si>
+  <si>
+    <t>image_212.png</t>
+  </si>
+  <si>
+    <t>2025-06-08</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:30:51</t>
+  </si>
+  <si>
+    <t>image_213.png</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:31:13</t>
+  </si>
+  <si>
+    <t>image_214.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:31:32</t>
+  </si>
+  <si>
+    <t>image_215.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:32:08</t>
+  </si>
+  <si>
+    <t>image_216.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:33:28</t>
+  </si>
+  <si>
+    <t>image_217.png</t>
+  </si>
+  <si>
+    <t>2025-05-13</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:35:23</t>
+  </si>
+  <si>
+    <t>image_218.png</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:35:37</t>
+  </si>
+  <si>
+    <t>image_219.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:35:49</t>
+  </si>
+  <si>
+    <t>image_220.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:36:47</t>
+  </si>
+  <si>
+    <t>image_221.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:37:09</t>
+  </si>
+  <si>
+    <t>image_222.png</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:37:25</t>
+  </si>
+  <si>
+    <t>image_223.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:37:36</t>
+  </si>
+  <si>
+    <t>image_224.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:37:48</t>
+  </si>
+  <si>
+    <t>image_225.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:38:59</t>
+  </si>
+  <si>
+    <t>image_226.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:43:55</t>
+  </si>
+  <si>
+    <t>image_227.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:44:14</t>
+  </si>
+  <si>
+    <t>image_228.png</t>
+  </si>
+  <si>
+    <t>2025-05-16</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:44:53</t>
+  </si>
+  <si>
+    <t>image_229.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:45:09</t>
+  </si>
+  <si>
+    <t>image_230.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:45:40</t>
+  </si>
+  <si>
+    <t>image_231.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:45:55</t>
+  </si>
+  <si>
+    <t>image_232.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:47:01</t>
+  </si>
+  <si>
+    <t>image_233.png</t>
+  </si>
+  <si>
+    <t>2025-05-17</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:47:49</t>
+  </si>
+  <si>
+    <t>image_234.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:48:03</t>
+  </si>
+  <si>
+    <t>image_235.png</t>
+  </si>
+  <si>
+    <t>2025-05-21</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:48:21</t>
+  </si>
+  <si>
+    <t>image_236.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:48:50</t>
+  </si>
+  <si>
+    <t>image_237.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:49:06</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:49:10</t>
+  </si>
+  <si>
+    <t>image_238.png</t>
+  </si>
+  <si>
+    <t>2025-05-22</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:50:21</t>
+  </si>
+  <si>
+    <t>image_239.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:51:48</t>
+  </si>
+  <si>
+    <t>image_240.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:52:05</t>
+  </si>
+  <si>
+    <t>image_241.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:52:15</t>
+  </si>
+  <si>
+    <t>image_242.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:53:50</t>
+  </si>
+  <si>
+    <t>image_243.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:53:59</t>
+  </si>
+  <si>
+    <t>image_244.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:54:16</t>
+  </si>
+  <si>
+    <t>image_245.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:54:31</t>
+  </si>
+  <si>
+    <t>image_246.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:54:47</t>
+  </si>
+  <si>
+    <t>image_247.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:54:58</t>
+  </si>
+  <si>
+    <t>image_248.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:55:22</t>
+  </si>
+  <si>
+    <t>image_249.png</t>
+  </si>
+  <si>
+    <t>2025-05-23</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:55:35</t>
+  </si>
+  <si>
+    <t>image_250.png</t>
+  </si>
+  <si>
+    <t>Mastektomie + Impl</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:55:59</t>
+  </si>
+  <si>
+    <t>image_251.png</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>BET re + SLNB</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:56:21</t>
+  </si>
+  <si>
+    <t>image_252.png</t>
+  </si>
+  <si>
+    <t>BET li.</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:56:43</t>
+  </si>
+  <si>
+    <t>image_253.png</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:57:01</t>
+  </si>
+  <si>
+    <t>image_254.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:57:14</t>
+  </si>
+  <si>
+    <t>image_255.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:57:26</t>
+  </si>
+  <si>
+    <t>image_256.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:57:40</t>
+  </si>
+  <si>
+    <t>image_257.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:57:51</t>
+  </si>
+  <si>
+    <t>image_258.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:58:13</t>
+  </si>
+  <si>
+    <t>image_259.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:58:54</t>
+  </si>
+  <si>
+    <t>image_260.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:59:20</t>
+  </si>
+  <si>
+    <t>image_261.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T16:59:50</t>
+  </si>
+  <si>
+    <t>image_262.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:00:26</t>
+  </si>
+  <si>
+    <t>image_263.png</t>
+  </si>
+  <si>
+    <t>2025-04-05</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:00:51</t>
+  </si>
+  <si>
+    <t>image_264.png</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:01:05</t>
+  </si>
+  <si>
+    <t>image_265.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:01:22</t>
+  </si>
+  <si>
+    <t>image_266.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:01:38</t>
+  </si>
+  <si>
+    <t>image_267.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:02:08</t>
+  </si>
+  <si>
+    <t>image_268.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:02:25</t>
+  </si>
+  <si>
+    <t>image_270.png</t>
+  </si>
+  <si>
+    <t>rechte Tharax Wand</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:03:06</t>
+  </si>
+  <si>
+    <t>image_271.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:03:22</t>
+  </si>
+  <si>
+    <t>image_272.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:03:41</t>
+  </si>
+  <si>
+    <t>image_273.png</t>
+  </si>
+  <si>
+    <t>links</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:04:07</t>
+  </si>
+  <si>
+    <t>image_274.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:04:30</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:04:52</t>
+  </si>
+  <si>
+    <t>image_275.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:05:03</t>
+  </si>
+  <si>
+    <t>image_276.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:05:15</t>
+  </si>
+  <si>
+    <t>image_277.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:05:33</t>
+  </si>
+  <si>
+    <t>image_278.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:06:02</t>
+  </si>
+  <si>
+    <t>image_279.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:06:19</t>
+  </si>
+  <si>
+    <t>image_280.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:06:34</t>
+  </si>
+  <si>
+    <t>image_281.png</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:06:45</t>
+  </si>
+  <si>
+    <t>image_282.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:07:00</t>
+  </si>
+  <si>
+    <t>image_283.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:08:02</t>
+  </si>
+  <si>
+    <t>image_284.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:08:23</t>
+  </si>
+  <si>
+    <t>image_285.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:08:45</t>
+  </si>
+  <si>
+    <t>image_286.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:09:05</t>
+  </si>
+  <si>
+    <t>image_287.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:09:16</t>
+  </si>
+  <si>
+    <t>image_288.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:09:53</t>
+  </si>
+  <si>
+    <t>image_289.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:10:11</t>
+  </si>
+  <si>
+    <t>image_290.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:10:21</t>
+  </si>
+  <si>
+    <t>image_291.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:10:31</t>
+  </si>
+  <si>
+    <t>image_292.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:10:40</t>
+  </si>
+  <si>
+    <t>image_293.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:10:56</t>
+  </si>
+  <si>
+    <t>image_294.png</t>
+  </si>
+  <si>
+    <t>mastertemie + Exp + SLNB li</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:11:36</t>
+  </si>
+  <si>
+    <t>image_295.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:12:03</t>
+  </si>
+  <si>
+    <t>image_296.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:12:26</t>
+  </si>
+  <si>
+    <t>image_297.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:12:54</t>
+  </si>
+  <si>
+    <t>image_298.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:13:16</t>
+  </si>
+  <si>
+    <t>image_299.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:13:38</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:13:53</t>
+  </si>
+  <si>
+    <t>image_300.png</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:14:09</t>
+  </si>
+  <si>
+    <t>image_301.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:14:26</t>
+  </si>
+  <si>
+    <t>image_302.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:14:51</t>
+  </si>
+  <si>
+    <t>image_303.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:15:03</t>
+  </si>
+  <si>
+    <t>image_304.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:15:47</t>
+  </si>
+  <si>
+    <t>image_305.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:16:23</t>
+  </si>
+  <si>
+    <t>image_306.png</t>
+  </si>
+  <si>
+    <t>2025-11-29T17:16:43</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +2281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3612,6 +4656,3479 @@
         <v>286</v>
       </c>
     </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>154</v>
+      </c>
+      <c r="B104" t="s">
+        <v>287</v>
+      </c>
+      <c r="C104" t="s">
+        <v>157</v>
+      </c>
+      <c r="D104">
+        <v>71</v>
+      </c>
+      <c r="E104" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" t="s">
+        <v>288</v>
+      </c>
+      <c r="G104" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>155</v>
+      </c>
+      <c r="B105" t="s">
+        <v>289</v>
+      </c>
+      <c r="C105" t="s">
+        <v>157</v>
+      </c>
+      <c r="D105">
+        <v>72</v>
+      </c>
+      <c r="E105" t="s">
+        <v>50</v>
+      </c>
+      <c r="F105" t="s">
+        <v>290</v>
+      </c>
+      <c r="G105" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>156</v>
+      </c>
+      <c r="B106" t="s">
+        <v>291</v>
+      </c>
+      <c r="C106" t="s">
+        <v>157</v>
+      </c>
+      <c r="D106">
+        <v>73</v>
+      </c>
+      <c r="E106" t="s">
+        <v>36</v>
+      </c>
+      <c r="F106" t="s">
+        <v>292</v>
+      </c>
+      <c r="G106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>157</v>
+      </c>
+      <c r="B107" t="s">
+        <v>293</v>
+      </c>
+      <c r="C107" t="s">
+        <v>294</v>
+      </c>
+      <c r="D107">
+        <v>73</v>
+      </c>
+      <c r="E107" t="s">
+        <v>36</v>
+      </c>
+      <c r="F107" t="s">
+        <v>295</v>
+      </c>
+      <c r="G107" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>158</v>
+      </c>
+      <c r="B108" t="s">
+        <v>296</v>
+      </c>
+      <c r="C108" t="s">
+        <v>297</v>
+      </c>
+      <c r="D108">
+        <v>72</v>
+      </c>
+      <c r="E108" t="s">
+        <v>46</v>
+      </c>
+      <c r="F108" t="s">
+        <v>298</v>
+      </c>
+      <c r="G108" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>159</v>
+      </c>
+      <c r="B109" t="s">
+        <v>299</v>
+      </c>
+      <c r="C109" t="s">
+        <v>297</v>
+      </c>
+      <c r="D109">
+        <v>74</v>
+      </c>
+      <c r="E109" t="s">
+        <v>50</v>
+      </c>
+      <c r="F109" t="s">
+        <v>300</v>
+      </c>
+      <c r="G109" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>160</v>
+      </c>
+      <c r="B110" t="s">
+        <v>301</v>
+      </c>
+      <c r="C110" t="s">
+        <v>302</v>
+      </c>
+      <c r="D110">
+        <v>71</v>
+      </c>
+      <c r="E110" t="s">
+        <v>17</v>
+      </c>
+      <c r="F110" t="s">
+        <v>303</v>
+      </c>
+      <c r="G110" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>161</v>
+      </c>
+      <c r="B111" t="s">
+        <v>304</v>
+      </c>
+      <c r="C111" t="s">
+        <v>297</v>
+      </c>
+      <c r="D111">
+        <v>75</v>
+      </c>
+      <c r="E111" t="s">
+        <v>88</v>
+      </c>
+      <c r="F111" t="s">
+        <v>305</v>
+      </c>
+      <c r="G111" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>162</v>
+      </c>
+      <c r="B112" t="s">
+        <v>306</v>
+      </c>
+      <c r="C112" t="s">
+        <v>307</v>
+      </c>
+      <c r="D112">
+        <v>75</v>
+      </c>
+      <c r="E112" t="s">
+        <v>88</v>
+      </c>
+      <c r="F112" t="s">
+        <v>308</v>
+      </c>
+      <c r="G112" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>163</v>
+      </c>
+      <c r="B113" t="s">
+        <v>309</v>
+      </c>
+      <c r="C113" t="s">
+        <v>307</v>
+      </c>
+      <c r="D113">
+        <v>74</v>
+      </c>
+      <c r="E113" t="s">
+        <v>50</v>
+      </c>
+      <c r="F113" t="s">
+        <v>310</v>
+      </c>
+      <c r="G113" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>164</v>
+      </c>
+      <c r="B114" t="s">
+        <v>311</v>
+      </c>
+      <c r="C114" t="s">
+        <v>312</v>
+      </c>
+      <c r="D114">
+        <v>87</v>
+      </c>
+      <c r="E114" t="s">
+        <v>31</v>
+      </c>
+      <c r="F114" t="s">
+        <v>313</v>
+      </c>
+      <c r="G114" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>166</v>
+      </c>
+      <c r="B115" t="s">
+        <v>314</v>
+      </c>
+      <c r="C115" t="s">
+        <v>315</v>
+      </c>
+      <c r="D115">
+        <v>76</v>
+      </c>
+      <c r="E115" t="s">
+        <v>31</v>
+      </c>
+      <c r="F115" t="s">
+        <v>316</v>
+      </c>
+      <c r="G115" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>167</v>
+      </c>
+      <c r="B116" t="s">
+        <v>317</v>
+      </c>
+      <c r="C116" t="s">
+        <v>315</v>
+      </c>
+      <c r="D116">
+        <v>77</v>
+      </c>
+      <c r="E116" t="s">
+        <v>46</v>
+      </c>
+      <c r="F116" t="s">
+        <v>318</v>
+      </c>
+      <c r="G116" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>168</v>
+      </c>
+      <c r="B117" t="s">
+        <v>319</v>
+      </c>
+      <c r="C117" t="s">
+        <v>197</v>
+      </c>
+      <c r="D117">
+        <v>69</v>
+      </c>
+      <c r="E117" t="s">
+        <v>276</v>
+      </c>
+      <c r="F117" t="s">
+        <v>320</v>
+      </c>
+      <c r="G117" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>169</v>
+      </c>
+      <c r="B118" t="s">
+        <v>321</v>
+      </c>
+      <c r="C118" t="s">
+        <v>197</v>
+      </c>
+      <c r="D118">
+        <v>71</v>
+      </c>
+      <c r="E118" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" t="s">
+        <v>322</v>
+      </c>
+      <c r="G118" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>170</v>
+      </c>
+      <c r="B119" t="s">
+        <v>323</v>
+      </c>
+      <c r="C119" t="s">
+        <v>197</v>
+      </c>
+      <c r="D119">
+        <v>77</v>
+      </c>
+      <c r="E119" t="s">
+        <v>46</v>
+      </c>
+      <c r="F119" t="s">
+        <v>324</v>
+      </c>
+      <c r="G119" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>171</v>
+      </c>
+      <c r="B120" t="s">
+        <v>325</v>
+      </c>
+      <c r="C120" t="s">
+        <v>197</v>
+      </c>
+      <c r="D120">
+        <v>72</v>
+      </c>
+      <c r="E120" t="s">
+        <v>36</v>
+      </c>
+      <c r="F120" t="s">
+        <v>326</v>
+      </c>
+      <c r="G120" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>172</v>
+      </c>
+      <c r="B121" t="s">
+        <v>327</v>
+      </c>
+      <c r="C121" t="s">
+        <v>197</v>
+      </c>
+      <c r="D121">
+        <v>78</v>
+      </c>
+      <c r="E121" t="s">
+        <v>123</v>
+      </c>
+      <c r="F121" t="s">
+        <v>328</v>
+      </c>
+      <c r="G121" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>173</v>
+      </c>
+      <c r="B122" t="s">
+        <v>329</v>
+      </c>
+      <c r="C122" t="s">
+        <v>197</v>
+      </c>
+      <c r="D122">
+        <v>79</v>
+      </c>
+      <c r="E122" t="s">
+        <v>46</v>
+      </c>
+      <c r="F122" t="s">
+        <v>330</v>
+      </c>
+      <c r="G122" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>174</v>
+      </c>
+      <c r="B123" t="s">
+        <v>332</v>
+      </c>
+      <c r="C123" t="s">
+        <v>204</v>
+      </c>
+      <c r="D123">
+        <v>79</v>
+      </c>
+      <c r="E123" t="s">
+        <v>46</v>
+      </c>
+      <c r="F123" t="s">
+        <v>333</v>
+      </c>
+      <c r="G123" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>175</v>
+      </c>
+      <c r="B124" t="s">
+        <v>334</v>
+      </c>
+      <c r="C124" t="s">
+        <v>335</v>
+      </c>
+      <c r="D124">
+        <v>80</v>
+      </c>
+      <c r="E124" t="s">
+        <v>46</v>
+      </c>
+      <c r="F124" t="s">
+        <v>336</v>
+      </c>
+      <c r="G124" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>176</v>
+      </c>
+      <c r="B125" t="s">
+        <v>337</v>
+      </c>
+      <c r="C125" t="s">
+        <v>224</v>
+      </c>
+      <c r="D125">
+        <v>78</v>
+      </c>
+      <c r="E125" t="s">
+        <v>88</v>
+      </c>
+      <c r="F125" t="s">
+        <v>338</v>
+      </c>
+      <c r="G125" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>177</v>
+      </c>
+      <c r="B126" t="s">
+        <v>339</v>
+      </c>
+      <c r="C126" t="s">
+        <v>224</v>
+      </c>
+      <c r="D126">
+        <v>75</v>
+      </c>
+      <c r="E126" t="s">
+        <v>88</v>
+      </c>
+      <c r="F126" t="s">
+        <v>340</v>
+      </c>
+      <c r="G126" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>178</v>
+      </c>
+      <c r="B127" t="s">
+        <v>341</v>
+      </c>
+      <c r="C127" t="s">
+        <v>224</v>
+      </c>
+      <c r="D127">
+        <v>80</v>
+      </c>
+      <c r="E127" t="s">
+        <v>46</v>
+      </c>
+      <c r="F127" t="s">
+        <v>342</v>
+      </c>
+      <c r="G127" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>179</v>
+      </c>
+      <c r="B128" t="s">
+        <v>343</v>
+      </c>
+      <c r="C128" t="s">
+        <v>224</v>
+      </c>
+      <c r="D128">
+        <v>77</v>
+      </c>
+      <c r="E128" t="s">
+        <v>50</v>
+      </c>
+      <c r="F128" t="s">
+        <v>344</v>
+      </c>
+      <c r="G128" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>180</v>
+      </c>
+      <c r="B129" t="s">
+        <v>345</v>
+      </c>
+      <c r="C129" t="s">
+        <v>224</v>
+      </c>
+      <c r="D129">
+        <v>74</v>
+      </c>
+      <c r="E129" t="s">
+        <v>50</v>
+      </c>
+      <c r="F129" t="s">
+        <v>346</v>
+      </c>
+      <c r="G129" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>181</v>
+      </c>
+      <c r="B130" t="s">
+        <v>347</v>
+      </c>
+      <c r="C130" t="s">
+        <v>224</v>
+      </c>
+      <c r="D130">
+        <v>70</v>
+      </c>
+      <c r="E130" t="s">
+        <v>88</v>
+      </c>
+      <c r="F130" t="s">
+        <v>348</v>
+      </c>
+      <c r="G130" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>182</v>
+      </c>
+      <c r="B131" t="s">
+        <v>349</v>
+      </c>
+      <c r="C131" t="s">
+        <v>224</v>
+      </c>
+      <c r="D131">
+        <v>81</v>
+      </c>
+      <c r="E131" t="s">
+        <v>350</v>
+      </c>
+      <c r="F131" t="s">
+        <v>351</v>
+      </c>
+      <c r="G131" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>183</v>
+      </c>
+      <c r="B132" t="s">
+        <v>352</v>
+      </c>
+      <c r="C132" t="s">
+        <v>353</v>
+      </c>
+      <c r="D132">
+        <v>81</v>
+      </c>
+      <c r="E132" t="s">
+        <v>350</v>
+      </c>
+      <c r="F132" t="s">
+        <v>354</v>
+      </c>
+      <c r="G132" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>184</v>
+      </c>
+      <c r="B133" t="s">
+        <v>355</v>
+      </c>
+      <c r="C133" t="s">
+        <v>353</v>
+      </c>
+      <c r="D133">
+        <v>82</v>
+      </c>
+      <c r="E133" t="s">
+        <v>356</v>
+      </c>
+      <c r="F133" t="s">
+        <v>357</v>
+      </c>
+      <c r="G133" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>185</v>
+      </c>
+      <c r="B134" t="s">
+        <v>358</v>
+      </c>
+      <c r="C134" t="s">
+        <v>359</v>
+      </c>
+      <c r="D134">
+        <v>82</v>
+      </c>
+      <c r="E134" t="s">
+        <v>356</v>
+      </c>
+      <c r="F134" t="s">
+        <v>360</v>
+      </c>
+      <c r="G134" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>186</v>
+      </c>
+      <c r="B135" t="s">
+        <v>361</v>
+      </c>
+      <c r="C135" t="s">
+        <v>362</v>
+      </c>
+      <c r="D135">
+        <v>83</v>
+      </c>
+      <c r="E135" t="s">
+        <v>36</v>
+      </c>
+      <c r="F135" t="s">
+        <v>363</v>
+      </c>
+      <c r="G135" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>187</v>
+      </c>
+      <c r="B136" t="s">
+        <v>364</v>
+      </c>
+      <c r="C136" t="s">
+        <v>362</v>
+      </c>
+      <c r="D136">
+        <v>84</v>
+      </c>
+      <c r="E136" t="s">
+        <v>36</v>
+      </c>
+      <c r="F136" t="s">
+        <v>365</v>
+      </c>
+      <c r="G136" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>188</v>
+      </c>
+      <c r="B137" t="s">
+        <v>366</v>
+      </c>
+      <c r="C137" t="s">
+        <v>294</v>
+      </c>
+      <c r="D137">
+        <v>83</v>
+      </c>
+      <c r="E137" t="s">
+        <v>36</v>
+      </c>
+      <c r="F137" t="s">
+        <v>367</v>
+      </c>
+      <c r="G137" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>189</v>
+      </c>
+      <c r="B138" t="s">
+        <v>368</v>
+      </c>
+      <c r="C138" t="s">
+        <v>294</v>
+      </c>
+      <c r="D138">
+        <v>84</v>
+      </c>
+      <c r="E138" t="s">
+        <v>36</v>
+      </c>
+      <c r="F138" t="s">
+        <v>369</v>
+      </c>
+      <c r="G138" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>190</v>
+      </c>
+      <c r="B139" t="s">
+        <v>370</v>
+      </c>
+      <c r="C139" t="s">
+        <v>294</v>
+      </c>
+      <c r="D139">
+        <v>80</v>
+      </c>
+      <c r="E139" t="s">
+        <v>46</v>
+      </c>
+      <c r="F139" t="s">
+        <v>371</v>
+      </c>
+      <c r="G139" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>191</v>
+      </c>
+      <c r="B140" t="s">
+        <v>372</v>
+      </c>
+      <c r="C140" t="s">
+        <v>294</v>
+      </c>
+      <c r="D140">
+        <v>78</v>
+      </c>
+      <c r="E140" t="s">
+        <v>88</v>
+      </c>
+      <c r="F140" t="s">
+        <v>373</v>
+      </c>
+      <c r="G140" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>192</v>
+      </c>
+      <c r="B141" t="s">
+        <v>374</v>
+      </c>
+      <c r="C141" t="s">
+        <v>294</v>
+      </c>
+      <c r="D141">
+        <v>85</v>
+      </c>
+      <c r="E141" t="s">
+        <v>17</v>
+      </c>
+      <c r="F141" t="s">
+        <v>375</v>
+      </c>
+      <c r="G141" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>193</v>
+      </c>
+      <c r="B142" t="s">
+        <v>376</v>
+      </c>
+      <c r="C142" t="s">
+        <v>377</v>
+      </c>
+      <c r="D142">
+        <v>86</v>
+      </c>
+      <c r="E142" t="s">
+        <v>17</v>
+      </c>
+      <c r="F142" t="s">
+        <v>378</v>
+      </c>
+      <c r="G142" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>194</v>
+      </c>
+      <c r="B143" t="s">
+        <v>379</v>
+      </c>
+      <c r="C143" t="s">
+        <v>381</v>
+      </c>
+      <c r="D143">
+        <v>87</v>
+      </c>
+      <c r="E143" t="s">
+        <v>50</v>
+      </c>
+      <c r="F143" t="s">
+        <v>380</v>
+      </c>
+      <c r="G143" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>195</v>
+      </c>
+      <c r="B144" t="s">
+        <v>383</v>
+      </c>
+      <c r="C144" t="s">
+        <v>381</v>
+      </c>
+      <c r="D144">
+        <v>86</v>
+      </c>
+      <c r="E144" t="s">
+        <v>384</v>
+      </c>
+      <c r="F144" t="s">
+        <v>385</v>
+      </c>
+      <c r="G144" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>196</v>
+      </c>
+      <c r="B145" t="s">
+        <v>386</v>
+      </c>
+      <c r="C145" t="s">
+        <v>387</v>
+      </c>
+      <c r="D145">
+        <v>84</v>
+      </c>
+      <c r="E145" t="s">
+        <v>88</v>
+      </c>
+      <c r="F145" t="s">
+        <v>388</v>
+      </c>
+      <c r="G145" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>197</v>
+      </c>
+      <c r="B146" t="s">
+        <v>389</v>
+      </c>
+      <c r="C146" t="s">
+        <v>387</v>
+      </c>
+      <c r="D146">
+        <v>83</v>
+      </c>
+      <c r="E146" t="s">
+        <v>88</v>
+      </c>
+      <c r="F146" t="s">
+        <v>390</v>
+      </c>
+      <c r="G146" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>198</v>
+      </c>
+      <c r="B147" t="s">
+        <v>391</v>
+      </c>
+      <c r="C147" t="s">
+        <v>387</v>
+      </c>
+      <c r="D147">
+        <v>85</v>
+      </c>
+      <c r="E147" t="s">
+        <v>88</v>
+      </c>
+      <c r="F147" t="s">
+        <v>392</v>
+      </c>
+      <c r="G147" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>199</v>
+      </c>
+      <c r="B148" t="s">
+        <v>393</v>
+      </c>
+      <c r="C148" t="s">
+        <v>387</v>
+      </c>
+      <c r="D148">
+        <v>87</v>
+      </c>
+      <c r="E148" t="s">
+        <v>50</v>
+      </c>
+      <c r="F148" t="s">
+        <v>394</v>
+      </c>
+      <c r="G148" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>200</v>
+      </c>
+      <c r="B149" t="s">
+        <v>395</v>
+      </c>
+      <c r="C149" t="s">
+        <v>387</v>
+      </c>
+      <c r="D149">
+        <v>88</v>
+      </c>
+      <c r="E149" t="s">
+        <v>46</v>
+      </c>
+      <c r="F149" t="s">
+        <v>396</v>
+      </c>
+      <c r="G149" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>201</v>
+      </c>
+      <c r="B150" t="s">
+        <v>397</v>
+      </c>
+      <c r="C150" t="s">
+        <v>172</v>
+      </c>
+      <c r="D150">
+        <v>47</v>
+      </c>
+      <c r="E150" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" t="s">
+        <v>398</v>
+      </c>
+      <c r="G150" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>202</v>
+      </c>
+      <c r="B151" t="s">
+        <v>399</v>
+      </c>
+      <c r="C151" t="s">
+        <v>400</v>
+      </c>
+      <c r="D151">
+        <v>46</v>
+      </c>
+      <c r="E151" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" t="s">
+        <v>401</v>
+      </c>
+      <c r="G151" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>203</v>
+      </c>
+      <c r="B152" t="s">
+        <v>402</v>
+      </c>
+      <c r="C152" t="s">
+        <v>403</v>
+      </c>
+      <c r="D152">
+        <v>28</v>
+      </c>
+      <c r="E152" t="s">
+        <v>36</v>
+      </c>
+      <c r="F152" t="s">
+        <v>404</v>
+      </c>
+      <c r="G152" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>204</v>
+      </c>
+      <c r="B153" t="s">
+        <v>405</v>
+      </c>
+      <c r="C153" t="s">
+        <v>403</v>
+      </c>
+      <c r="D153">
+        <v>25</v>
+      </c>
+      <c r="E153" t="s">
+        <v>36</v>
+      </c>
+      <c r="F153" t="s">
+        <v>406</v>
+      </c>
+      <c r="G153" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>205</v>
+      </c>
+      <c r="B154" t="s">
+        <v>407</v>
+      </c>
+      <c r="C154" t="s">
+        <v>49</v>
+      </c>
+      <c r="D154">
+        <v>28</v>
+      </c>
+      <c r="E154" t="s">
+        <v>36</v>
+      </c>
+      <c r="F154" t="s">
+        <v>408</v>
+      </c>
+      <c r="G154" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>206</v>
+      </c>
+      <c r="B155" t="s">
+        <v>409</v>
+      </c>
+      <c r="C155" t="s">
+        <v>49</v>
+      </c>
+      <c r="D155">
+        <v>28</v>
+      </c>
+      <c r="E155" t="s">
+        <v>82</v>
+      </c>
+      <c r="F155" t="s">
+        <v>410</v>
+      </c>
+      <c r="G155" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>207</v>
+      </c>
+      <c r="B156" t="s">
+        <v>411</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156">
+        <v>30</v>
+      </c>
+      <c r="E156" t="s">
+        <v>17</v>
+      </c>
+      <c r="F156" t="s">
+        <v>412</v>
+      </c>
+      <c r="G156" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <v>208</v>
+      </c>
+      <c r="B157" t="s">
+        <v>413</v>
+      </c>
+      <c r="C157" t="s">
+        <v>49</v>
+      </c>
+      <c r="D157">
+        <v>25</v>
+      </c>
+      <c r="E157" t="s">
+        <v>36</v>
+      </c>
+      <c r="F157" t="s">
+        <v>414</v>
+      </c>
+      <c r="G157" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>209</v>
+      </c>
+      <c r="B158" t="s">
+        <v>415</v>
+      </c>
+      <c r="C158" t="s">
+        <v>49</v>
+      </c>
+      <c r="D158">
+        <v>29</v>
+      </c>
+      <c r="E158" t="s">
+        <v>416</v>
+      </c>
+      <c r="F158" t="s">
+        <v>417</v>
+      </c>
+      <c r="G158" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>210</v>
+      </c>
+      <c r="B159" t="s">
+        <v>418</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159">
+        <v>29</v>
+      </c>
+      <c r="E159" t="s">
+        <v>416</v>
+      </c>
+      <c r="F159" t="s">
+        <v>419</v>
+      </c>
+      <c r="G159" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <v>211</v>
+      </c>
+      <c r="B160" t="s">
+        <v>420</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160">
+        <v>32</v>
+      </c>
+      <c r="E160" t="s">
+        <v>46</v>
+      </c>
+      <c r="F160" t="s">
+        <v>421</v>
+      </c>
+      <c r="G160" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161">
+        <v>212</v>
+      </c>
+      <c r="B161" t="s">
+        <v>422</v>
+      </c>
+      <c r="C161" t="s">
+        <v>423</v>
+      </c>
+      <c r="D161">
+        <v>31</v>
+      </c>
+      <c r="E161" t="s">
+        <v>82</v>
+      </c>
+      <c r="F161" t="s">
+        <v>424</v>
+      </c>
+      <c r="G161" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162">
+        <v>213</v>
+      </c>
+      <c r="B162" t="s">
+        <v>425</v>
+      </c>
+      <c r="C162" t="s">
+        <v>426</v>
+      </c>
+      <c r="D162">
+        <v>32</v>
+      </c>
+      <c r="E162" t="s">
+        <v>82</v>
+      </c>
+      <c r="F162" t="s">
+        <v>427</v>
+      </c>
+      <c r="G162" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163">
+        <v>214</v>
+      </c>
+      <c r="B163" t="s">
+        <v>428</v>
+      </c>
+      <c r="C163" t="s">
+        <v>426</v>
+      </c>
+      <c r="D163">
+        <v>33</v>
+      </c>
+      <c r="E163" t="s">
+        <v>46</v>
+      </c>
+      <c r="F163" t="s">
+        <v>429</v>
+      </c>
+      <c r="G163" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164">
+        <v>215</v>
+      </c>
+      <c r="B164" t="s">
+        <v>430</v>
+      </c>
+      <c r="C164" t="s">
+        <v>53</v>
+      </c>
+      <c r="D164">
+        <v>33</v>
+      </c>
+      <c r="E164" t="s">
+        <v>46</v>
+      </c>
+      <c r="F164" t="s">
+        <v>431</v>
+      </c>
+      <c r="G164" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <v>216</v>
+      </c>
+      <c r="B165" t="s">
+        <v>432</v>
+      </c>
+      <c r="C165" t="s">
+        <v>53</v>
+      </c>
+      <c r="D165">
+        <v>34</v>
+      </c>
+      <c r="E165" t="s">
+        <v>46</v>
+      </c>
+      <c r="F165" t="s">
+        <v>433</v>
+      </c>
+      <c r="G165" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
+        <v>217</v>
+      </c>
+      <c r="B166" t="s">
+        <v>434</v>
+      </c>
+      <c r="C166" t="s">
+        <v>435</v>
+      </c>
+      <c r="D166">
+        <v>35</v>
+      </c>
+      <c r="E166" t="s">
+        <v>31</v>
+      </c>
+      <c r="F166" t="s">
+        <v>436</v>
+      </c>
+      <c r="G166" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167">
+        <v>218</v>
+      </c>
+      <c r="B167" t="s">
+        <v>437</v>
+      </c>
+      <c r="C167" t="s">
+        <v>438</v>
+      </c>
+      <c r="D167">
+        <v>38</v>
+      </c>
+      <c r="E167" t="s">
+        <v>88</v>
+      </c>
+      <c r="F167" t="s">
+        <v>439</v>
+      </c>
+      <c r="G167" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168">
+        <v>219</v>
+      </c>
+      <c r="B168" t="s">
+        <v>440</v>
+      </c>
+      <c r="C168" t="s">
+        <v>438</v>
+      </c>
+      <c r="D168">
+        <v>36</v>
+      </c>
+      <c r="E168" t="s">
+        <v>50</v>
+      </c>
+      <c r="F168" t="s">
+        <v>441</v>
+      </c>
+      <c r="G168" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <v>220</v>
+      </c>
+      <c r="B169" t="s">
+        <v>442</v>
+      </c>
+      <c r="C169" t="s">
+        <v>426</v>
+      </c>
+      <c r="D169">
+        <v>30</v>
+      </c>
+      <c r="E169" t="s">
+        <v>17</v>
+      </c>
+      <c r="F169" t="s">
+        <v>443</v>
+      </c>
+      <c r="G169" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170">
+        <v>221</v>
+      </c>
+      <c r="B170" t="s">
+        <v>444</v>
+      </c>
+      <c r="C170" t="s">
+        <v>426</v>
+      </c>
+      <c r="D170">
+        <v>34</v>
+      </c>
+      <c r="E170" t="s">
+        <v>46</v>
+      </c>
+      <c r="F170" t="s">
+        <v>445</v>
+      </c>
+      <c r="G170" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171">
+        <v>222</v>
+      </c>
+      <c r="B171" t="s">
+        <v>446</v>
+      </c>
+      <c r="C171" t="s">
+        <v>447</v>
+      </c>
+      <c r="D171">
+        <v>31</v>
+      </c>
+      <c r="E171" t="s">
+        <v>31</v>
+      </c>
+      <c r="F171" t="s">
+        <v>448</v>
+      </c>
+      <c r="G171" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172">
+        <v>223</v>
+      </c>
+      <c r="B172" t="s">
+        <v>449</v>
+      </c>
+      <c r="C172" t="s">
+        <v>447</v>
+      </c>
+      <c r="D172">
+        <v>29</v>
+      </c>
+      <c r="E172" t="s">
+        <v>31</v>
+      </c>
+      <c r="F172" t="s">
+        <v>450</v>
+      </c>
+      <c r="G172" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173">
+        <v>224</v>
+      </c>
+      <c r="B173" t="s">
+        <v>451</v>
+      </c>
+      <c r="C173" t="s">
+        <v>447</v>
+      </c>
+      <c r="D173">
+        <v>39</v>
+      </c>
+      <c r="E173" t="s">
+        <v>50</v>
+      </c>
+      <c r="F173" t="s">
+        <v>452</v>
+      </c>
+      <c r="G173" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174">
+        <v>225</v>
+      </c>
+      <c r="B174" t="s">
+        <v>453</v>
+      </c>
+      <c r="C174" t="s">
+        <v>447</v>
+      </c>
+      <c r="D174">
+        <v>40</v>
+      </c>
+      <c r="E174" t="s">
+        <v>88</v>
+      </c>
+      <c r="F174" t="s">
+        <v>454</v>
+      </c>
+      <c r="G174" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175">
+        <v>226</v>
+      </c>
+      <c r="B175" t="s">
+        <v>455</v>
+      </c>
+      <c r="C175" t="s">
+        <v>447</v>
+      </c>
+      <c r="D175">
+        <v>38</v>
+      </c>
+      <c r="E175" t="s">
+        <v>88</v>
+      </c>
+      <c r="F175" t="s">
+        <v>456</v>
+      </c>
+      <c r="G175" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176">
+        <v>227</v>
+      </c>
+      <c r="B176" t="s">
+        <v>457</v>
+      </c>
+      <c r="C176" t="s">
+        <v>447</v>
+      </c>
+      <c r="D176">
+        <v>36</v>
+      </c>
+      <c r="E176" t="s">
+        <v>50</v>
+      </c>
+      <c r="F176" t="s">
+        <v>458</v>
+      </c>
+      <c r="G176" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177">
+        <v>228</v>
+      </c>
+      <c r="B177" t="s">
+        <v>459</v>
+      </c>
+      <c r="C177" t="s">
+        <v>460</v>
+      </c>
+      <c r="D177">
+        <v>25</v>
+      </c>
+      <c r="E177" t="s">
+        <v>36</v>
+      </c>
+      <c r="F177" t="s">
+        <v>461</v>
+      </c>
+      <c r="G177" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178">
+        <v>229</v>
+      </c>
+      <c r="B178" t="s">
+        <v>462</v>
+      </c>
+      <c r="C178" t="s">
+        <v>460</v>
+      </c>
+      <c r="D178">
+        <v>40</v>
+      </c>
+      <c r="E178" t="s">
+        <v>88</v>
+      </c>
+      <c r="F178" t="s">
+        <v>463</v>
+      </c>
+      <c r="G178" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179">
+        <v>230</v>
+      </c>
+      <c r="B179" t="s">
+        <v>464</v>
+      </c>
+      <c r="C179" t="s">
+        <v>460</v>
+      </c>
+      <c r="D179">
+        <v>42</v>
+      </c>
+      <c r="E179" t="s">
+        <v>50</v>
+      </c>
+      <c r="F179" t="s">
+        <v>465</v>
+      </c>
+      <c r="G179" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180">
+        <v>231</v>
+      </c>
+      <c r="B180" t="s">
+        <v>466</v>
+      </c>
+      <c r="C180" t="s">
+        <v>460</v>
+      </c>
+      <c r="D180">
+        <v>41</v>
+      </c>
+      <c r="E180" t="s">
+        <v>88</v>
+      </c>
+      <c r="F180" t="s">
+        <v>467</v>
+      </c>
+      <c r="G180" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181">
+        <v>232</v>
+      </c>
+      <c r="B181" t="s">
+        <v>468</v>
+      </c>
+      <c r="C181" t="s">
+        <v>400</v>
+      </c>
+      <c r="D181">
+        <v>41</v>
+      </c>
+      <c r="E181" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" t="s">
+        <v>469</v>
+      </c>
+      <c r="G181" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182">
+        <v>233</v>
+      </c>
+      <c r="B182" t="s">
+        <v>470</v>
+      </c>
+      <c r="C182" t="s">
+        <v>471</v>
+      </c>
+      <c r="D182">
+        <v>42</v>
+      </c>
+      <c r="E182" t="s">
+        <v>50</v>
+      </c>
+      <c r="F182" t="s">
+        <v>472</v>
+      </c>
+      <c r="G182" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183">
+        <v>234</v>
+      </c>
+      <c r="B183" t="s">
+        <v>473</v>
+      </c>
+      <c r="C183" t="s">
+        <v>471</v>
+      </c>
+      <c r="D183">
+        <v>41</v>
+      </c>
+      <c r="E183" t="s">
+        <v>88</v>
+      </c>
+      <c r="F183" t="s">
+        <v>474</v>
+      </c>
+      <c r="G183" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184">
+        <v>235</v>
+      </c>
+      <c r="B184" t="s">
+        <v>475</v>
+      </c>
+      <c r="C184" t="s">
+        <v>476</v>
+      </c>
+      <c r="D184">
+        <v>43</v>
+      </c>
+      <c r="E184" t="s">
+        <v>46</v>
+      </c>
+      <c r="F184" t="s">
+        <v>477</v>
+      </c>
+      <c r="G184" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185">
+        <v>236</v>
+      </c>
+      <c r="B185" t="s">
+        <v>478</v>
+      </c>
+      <c r="C185" t="s">
+        <v>476</v>
+      </c>
+      <c r="D185">
+        <v>44</v>
+      </c>
+      <c r="E185" t="s">
+        <v>123</v>
+      </c>
+      <c r="F185" t="s">
+        <v>479</v>
+      </c>
+      <c r="G185" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186">
+        <v>237</v>
+      </c>
+      <c r="B186" t="s">
+        <v>480</v>
+      </c>
+      <c r="C186" t="s">
+        <v>476</v>
+      </c>
+      <c r="D186">
+        <v>45</v>
+      </c>
+      <c r="E186" t="s">
+        <v>169</v>
+      </c>
+      <c r="F186" t="s">
+        <v>481</v>
+      </c>
+      <c r="G186" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187">
+        <v>238</v>
+      </c>
+      <c r="B187" t="s">
+        <v>483</v>
+      </c>
+      <c r="C187" t="s">
+        <v>484</v>
+      </c>
+      <c r="D187">
+        <v>37</v>
+      </c>
+      <c r="E187" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187" t="s">
+        <v>485</v>
+      </c>
+      <c r="G187" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188">
+        <v>239</v>
+      </c>
+      <c r="B188" t="s">
+        <v>486</v>
+      </c>
+      <c r="C188" t="s">
+        <v>484</v>
+      </c>
+      <c r="D188">
+        <v>38</v>
+      </c>
+      <c r="E188" t="s">
+        <v>9</v>
+      </c>
+      <c r="F188" t="s">
+        <v>487</v>
+      </c>
+      <c r="G188" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189">
+        <v>240</v>
+      </c>
+      <c r="B189" t="s">
+        <v>488</v>
+      </c>
+      <c r="C189" t="s">
+        <v>484</v>
+      </c>
+      <c r="D189">
+        <v>28</v>
+      </c>
+      <c r="E189" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" t="s">
+        <v>489</v>
+      </c>
+      <c r="G189" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190">
+        <v>241</v>
+      </c>
+      <c r="B190" t="s">
+        <v>490</v>
+      </c>
+      <c r="C190" t="s">
+        <v>484</v>
+      </c>
+      <c r="D190">
+        <v>34</v>
+      </c>
+      <c r="E190" t="s">
+        <v>9</v>
+      </c>
+      <c r="F190" t="s">
+        <v>491</v>
+      </c>
+      <c r="G190" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191">
+        <v>242</v>
+      </c>
+      <c r="B191" t="s">
+        <v>492</v>
+      </c>
+      <c r="C191" t="s">
+        <v>484</v>
+      </c>
+      <c r="D191">
+        <v>35</v>
+      </c>
+      <c r="E191" t="s">
+        <v>9</v>
+      </c>
+      <c r="F191" t="s">
+        <v>493</v>
+      </c>
+      <c r="G191" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192">
+        <v>243</v>
+      </c>
+      <c r="B192" t="s">
+        <v>494</v>
+      </c>
+      <c r="C192" t="s">
+        <v>484</v>
+      </c>
+      <c r="D192">
+        <v>33</v>
+      </c>
+      <c r="E192" t="s">
+        <v>9</v>
+      </c>
+      <c r="F192" t="s">
+        <v>495</v>
+      </c>
+      <c r="G192" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193">
+        <v>244</v>
+      </c>
+      <c r="B193" t="s">
+        <v>496</v>
+      </c>
+      <c r="C193" t="s">
+        <v>484</v>
+      </c>
+      <c r="D193">
+        <v>40</v>
+      </c>
+      <c r="E193" t="s">
+        <v>9</v>
+      </c>
+      <c r="F193" t="s">
+        <v>497</v>
+      </c>
+      <c r="G193" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194">
+        <v>245</v>
+      </c>
+      <c r="B194" t="s">
+        <v>498</v>
+      </c>
+      <c r="C194" t="s">
+        <v>484</v>
+      </c>
+      <c r="D194">
+        <v>45</v>
+      </c>
+      <c r="E194" t="s">
+        <v>169</v>
+      </c>
+      <c r="F194" t="s">
+        <v>499</v>
+      </c>
+      <c r="G194" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195">
+        <v>246</v>
+      </c>
+      <c r="B195" t="s">
+        <v>500</v>
+      </c>
+      <c r="C195" t="s">
+        <v>484</v>
+      </c>
+      <c r="D195">
+        <v>44</v>
+      </c>
+      <c r="E195" t="s">
+        <v>169</v>
+      </c>
+      <c r="F195" t="s">
+        <v>501</v>
+      </c>
+      <c r="G195" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196">
+        <v>247</v>
+      </c>
+      <c r="B196" t="s">
+        <v>502</v>
+      </c>
+      <c r="C196" t="s">
+        <v>484</v>
+      </c>
+      <c r="D196">
+        <v>43</v>
+      </c>
+      <c r="E196" t="s">
+        <v>137</v>
+      </c>
+      <c r="F196" t="s">
+        <v>503</v>
+      </c>
+      <c r="G196" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197">
+        <v>248</v>
+      </c>
+      <c r="B197" t="s">
+        <v>504</v>
+      </c>
+      <c r="C197" t="s">
+        <v>484</v>
+      </c>
+      <c r="D197">
+        <v>46</v>
+      </c>
+      <c r="E197" t="s">
+        <v>9</v>
+      </c>
+      <c r="F197" t="s">
+        <v>505</v>
+      </c>
+      <c r="G197" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198">
+        <v>249</v>
+      </c>
+      <c r="B198" t="s">
+        <v>506</v>
+      </c>
+      <c r="C198" t="s">
+        <v>507</v>
+      </c>
+      <c r="D198">
+        <v>32</v>
+      </c>
+      <c r="E198" t="s">
+        <v>9</v>
+      </c>
+      <c r="F198" t="s">
+        <v>508</v>
+      </c>
+      <c r="G198" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199">
+        <v>250</v>
+      </c>
+      <c r="B199" t="s">
+        <v>509</v>
+      </c>
+      <c r="C199" t="s">
+        <v>507</v>
+      </c>
+      <c r="D199">
+        <v>46</v>
+      </c>
+      <c r="E199" t="s">
+        <v>510</v>
+      </c>
+      <c r="F199" t="s">
+        <v>511</v>
+      </c>
+      <c r="G199" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200">
+        <v>251</v>
+      </c>
+      <c r="B200" t="s">
+        <v>512</v>
+      </c>
+      <c r="C200" t="s">
+        <v>513</v>
+      </c>
+      <c r="D200">
+        <v>49</v>
+      </c>
+      <c r="E200" t="s">
+        <v>514</v>
+      </c>
+      <c r="F200" t="s">
+        <v>515</v>
+      </c>
+      <c r="G200" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201">
+        <v>252</v>
+      </c>
+      <c r="B201" t="s">
+        <v>516</v>
+      </c>
+      <c r="C201" t="s">
+        <v>513</v>
+      </c>
+      <c r="D201">
+        <v>48</v>
+      </c>
+      <c r="E201" t="s">
+        <v>517</v>
+      </c>
+      <c r="F201" t="s">
+        <v>518</v>
+      </c>
+      <c r="G201" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202">
+        <v>253</v>
+      </c>
+      <c r="B202" t="s">
+        <v>519</v>
+      </c>
+      <c r="C202" t="s">
+        <v>520</v>
+      </c>
+      <c r="D202">
+        <v>48</v>
+      </c>
+      <c r="E202" t="s">
+        <v>9</v>
+      </c>
+      <c r="F202" t="s">
+        <v>521</v>
+      </c>
+      <c r="G202" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203">
+        <v>254</v>
+      </c>
+      <c r="B203" t="s">
+        <v>522</v>
+      </c>
+      <c r="C203" t="s">
+        <v>400</v>
+      </c>
+      <c r="D203">
+        <v>42</v>
+      </c>
+      <c r="E203" t="s">
+        <v>9</v>
+      </c>
+      <c r="F203" t="s">
+        <v>523</v>
+      </c>
+      <c r="G203" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204">
+        <v>255</v>
+      </c>
+      <c r="B204" t="s">
+        <v>524</v>
+      </c>
+      <c r="C204" t="s">
+        <v>400</v>
+      </c>
+      <c r="D204">
+        <v>43</v>
+      </c>
+      <c r="E204" t="s">
+        <v>9</v>
+      </c>
+      <c r="F204" t="s">
+        <v>525</v>
+      </c>
+      <c r="G204" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205">
+        <v>256</v>
+      </c>
+      <c r="B205" t="s">
+        <v>526</v>
+      </c>
+      <c r="C205" t="s">
+        <v>400</v>
+      </c>
+      <c r="D205">
+        <v>38</v>
+      </c>
+      <c r="E205" t="s">
+        <v>9</v>
+      </c>
+      <c r="F205" t="s">
+        <v>527</v>
+      </c>
+      <c r="G205" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206">
+        <v>257</v>
+      </c>
+      <c r="B206" t="s">
+        <v>528</v>
+      </c>
+      <c r="C206" t="s">
+        <v>400</v>
+      </c>
+      <c r="D206">
+        <v>36</v>
+      </c>
+      <c r="E206" t="s">
+        <v>9</v>
+      </c>
+      <c r="F206" t="s">
+        <v>529</v>
+      </c>
+      <c r="G206" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207">
+        <v>258</v>
+      </c>
+      <c r="B207" t="s">
+        <v>530</v>
+      </c>
+      <c r="C207" t="s">
+        <v>108</v>
+      </c>
+      <c r="D207">
+        <v>27</v>
+      </c>
+      <c r="E207" t="s">
+        <v>109</v>
+      </c>
+      <c r="F207" t="s">
+        <v>531</v>
+      </c>
+      <c r="G207" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208">
+        <v>259</v>
+      </c>
+      <c r="B208" t="s">
+        <v>532</v>
+      </c>
+      <c r="C208" t="s">
+        <v>87</v>
+      </c>
+      <c r="D208">
+        <v>12</v>
+      </c>
+      <c r="E208" t="s">
+        <v>31</v>
+      </c>
+      <c r="F208" t="s">
+        <v>533</v>
+      </c>
+      <c r="G208" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209">
+        <v>260</v>
+      </c>
+      <c r="B209" t="s">
+        <v>534</v>
+      </c>
+      <c r="C209" t="s">
+        <v>145</v>
+      </c>
+      <c r="D209">
+        <v>26</v>
+      </c>
+      <c r="E209" t="s">
+        <v>31</v>
+      </c>
+      <c r="F209" t="s">
+        <v>535</v>
+      </c>
+      <c r="G209" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210">
+        <v>261</v>
+      </c>
+      <c r="B210" t="s">
+        <v>536</v>
+      </c>
+      <c r="C210" t="s">
+        <v>70</v>
+      </c>
+      <c r="D210">
+        <v>3</v>
+      </c>
+      <c r="E210" t="s">
+        <v>123</v>
+      </c>
+      <c r="F210" t="s">
+        <v>537</v>
+      </c>
+      <c r="G210" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211">
+        <v>262</v>
+      </c>
+      <c r="B211" t="s">
+        <v>538</v>
+      </c>
+      <c r="C211" t="s">
+        <v>70</v>
+      </c>
+      <c r="D211">
+        <v>5</v>
+      </c>
+      <c r="E211" t="s">
+        <v>82</v>
+      </c>
+      <c r="F211" t="s">
+        <v>539</v>
+      </c>
+      <c r="G211" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212">
+        <v>263</v>
+      </c>
+      <c r="B212" t="s">
+        <v>540</v>
+      </c>
+      <c r="C212" t="s">
+        <v>541</v>
+      </c>
+      <c r="D212">
+        <v>5</v>
+      </c>
+      <c r="E212" t="s">
+        <v>82</v>
+      </c>
+      <c r="F212" t="s">
+        <v>542</v>
+      </c>
+      <c r="G212" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213">
+        <v>264</v>
+      </c>
+      <c r="B213" t="s">
+        <v>543</v>
+      </c>
+      <c r="C213" t="s">
+        <v>544</v>
+      </c>
+      <c r="D213">
+        <v>9</v>
+      </c>
+      <c r="E213" t="s">
+        <v>31</v>
+      </c>
+      <c r="F213" t="s">
+        <v>545</v>
+      </c>
+      <c r="G213" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214">
+        <v>265</v>
+      </c>
+      <c r="B214" t="s">
+        <v>546</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214">
+        <v>23</v>
+      </c>
+      <c r="E214" t="s">
+        <v>36</v>
+      </c>
+      <c r="F214" t="s">
+        <v>547</v>
+      </c>
+      <c r="G214" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215">
+        <v>266</v>
+      </c>
+      <c r="B215" t="s">
+        <v>548</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215">
+        <v>20</v>
+      </c>
+      <c r="E215" t="s">
+        <v>31</v>
+      </c>
+      <c r="F215" t="s">
+        <v>549</v>
+      </c>
+      <c r="G215" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216">
+        <v>267</v>
+      </c>
+      <c r="B216" t="s">
+        <v>550</v>
+      </c>
+      <c r="C216" t="s">
+        <v>426</v>
+      </c>
+      <c r="D216">
+        <v>2</v>
+      </c>
+      <c r="E216" t="s">
+        <v>36</v>
+      </c>
+      <c r="F216" t="s">
+        <v>551</v>
+      </c>
+      <c r="G216" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217">
+        <v>268</v>
+      </c>
+      <c r="B217" t="s">
+        <v>552</v>
+      </c>
+      <c r="C217" t="s">
+        <v>426</v>
+      </c>
+      <c r="D217">
+        <v>6</v>
+      </c>
+      <c r="E217" t="s">
+        <v>31</v>
+      </c>
+      <c r="F217" t="s">
+        <v>553</v>
+      </c>
+      <c r="G217" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218">
+        <v>270</v>
+      </c>
+      <c r="B218" t="s">
+        <v>554</v>
+      </c>
+      <c r="C218" t="s">
+        <v>26</v>
+      </c>
+      <c r="D218">
+        <v>4</v>
+      </c>
+      <c r="E218" t="s">
+        <v>555</v>
+      </c>
+      <c r="F218" t="s">
+        <v>556</v>
+      </c>
+      <c r="G218" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219">
+        <v>271</v>
+      </c>
+      <c r="B219" t="s">
+        <v>557</v>
+      </c>
+      <c r="C219" t="s">
+        <v>120</v>
+      </c>
+      <c r="D219">
+        <v>11</v>
+      </c>
+      <c r="E219" t="s">
+        <v>31</v>
+      </c>
+      <c r="F219" t="s">
+        <v>558</v>
+      </c>
+      <c r="G219" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220">
+        <v>272</v>
+      </c>
+      <c r="B220" t="s">
+        <v>559</v>
+      </c>
+      <c r="C220" t="s">
+        <v>97</v>
+      </c>
+      <c r="D220">
+        <v>13</v>
+      </c>
+      <c r="E220" t="s">
+        <v>82</v>
+      </c>
+      <c r="F220" t="s">
+        <v>560</v>
+      </c>
+      <c r="G220" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221">
+        <v>273</v>
+      </c>
+      <c r="B221" t="s">
+        <v>561</v>
+      </c>
+      <c r="C221" t="s">
+        <v>91</v>
+      </c>
+      <c r="D221">
+        <v>3</v>
+      </c>
+      <c r="E221" t="s">
+        <v>562</v>
+      </c>
+      <c r="F221" t="s">
+        <v>563</v>
+      </c>
+      <c r="G221" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222">
+        <v>274</v>
+      </c>
+      <c r="B222" t="s">
+        <v>564</v>
+      </c>
+      <c r="C222" t="s">
+        <v>120</v>
+      </c>
+      <c r="D222">
+        <v>6</v>
+      </c>
+      <c r="E222" t="s">
+        <v>31</v>
+      </c>
+      <c r="F222" t="s">
+        <v>565</v>
+      </c>
+      <c r="G222" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223">
+        <v>275</v>
+      </c>
+      <c r="B223" t="s">
+        <v>567</v>
+      </c>
+      <c r="C223" t="s">
+        <v>91</v>
+      </c>
+      <c r="D223">
+        <v>5</v>
+      </c>
+      <c r="E223" t="s">
+        <v>31</v>
+      </c>
+      <c r="F223" t="s">
+        <v>568</v>
+      </c>
+      <c r="G223" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224">
+        <v>276</v>
+      </c>
+      <c r="B224" t="s">
+        <v>569</v>
+      </c>
+      <c r="C224" t="s">
+        <v>91</v>
+      </c>
+      <c r="D224">
+        <v>13</v>
+      </c>
+      <c r="E224" t="s">
+        <v>82</v>
+      </c>
+      <c r="F224" t="s">
+        <v>570</v>
+      </c>
+      <c r="G224" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225">
+        <v>277</v>
+      </c>
+      <c r="B225" t="s">
+        <v>571</v>
+      </c>
+      <c r="C225" t="s">
+        <v>103</v>
+      </c>
+      <c r="D225">
+        <v>17</v>
+      </c>
+      <c r="E225" t="s">
+        <v>46</v>
+      </c>
+      <c r="F225" t="s">
+        <v>572</v>
+      </c>
+      <c r="G225" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226">
+        <v>278</v>
+      </c>
+      <c r="B226" t="s">
+        <v>573</v>
+      </c>
+      <c r="C226" t="s">
+        <v>103</v>
+      </c>
+      <c r="D226">
+        <v>15</v>
+      </c>
+      <c r="E226" t="s">
+        <v>82</v>
+      </c>
+      <c r="F226" t="s">
+        <v>574</v>
+      </c>
+      <c r="G226" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227">
+        <v>279</v>
+      </c>
+      <c r="B227" t="s">
+        <v>575</v>
+      </c>
+      <c r="C227" t="s">
+        <v>100</v>
+      </c>
+      <c r="D227">
+        <v>19</v>
+      </c>
+      <c r="E227" t="s">
+        <v>137</v>
+      </c>
+      <c r="F227" t="s">
+        <v>576</v>
+      </c>
+      <c r="G227" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228">
+        <v>280</v>
+      </c>
+      <c r="B228" t="s">
+        <v>577</v>
+      </c>
+      <c r="C228" t="s">
+        <v>94</v>
+      </c>
+      <c r="D228">
+        <v>7</v>
+      </c>
+      <c r="E228" t="s">
+        <v>82</v>
+      </c>
+      <c r="F228" t="s">
+        <v>578</v>
+      </c>
+      <c r="G228" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229">
+        <v>281</v>
+      </c>
+      <c r="B229" t="s">
+        <v>579</v>
+      </c>
+      <c r="C229" t="s">
+        <v>580</v>
+      </c>
+      <c r="D229">
+        <v>21</v>
+      </c>
+      <c r="E229" t="s">
+        <v>82</v>
+      </c>
+      <c r="F229" t="s">
+        <v>581</v>
+      </c>
+      <c r="G229" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230">
+        <v>282</v>
+      </c>
+      <c r="B230" t="s">
+        <v>582</v>
+      </c>
+      <c r="C230" t="s">
+        <v>75</v>
+      </c>
+      <c r="D230">
+        <v>22</v>
+      </c>
+      <c r="E230" t="s">
+        <v>46</v>
+      </c>
+      <c r="F230" t="s">
+        <v>583</v>
+      </c>
+      <c r="G230" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231">
+        <v>283</v>
+      </c>
+      <c r="B231" t="s">
+        <v>584</v>
+      </c>
+      <c r="C231" t="s">
+        <v>75</v>
+      </c>
+      <c r="D231">
+        <v>24</v>
+      </c>
+      <c r="E231" t="s">
+        <v>46</v>
+      </c>
+      <c r="F231" t="s">
+        <v>585</v>
+      </c>
+      <c r="G231" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232">
+        <v>284</v>
+      </c>
+      <c r="B232" t="s">
+        <v>586</v>
+      </c>
+      <c r="C232" t="s">
+        <v>251</v>
+      </c>
+      <c r="D232">
+        <v>67</v>
+      </c>
+      <c r="E232" t="s">
+        <v>17</v>
+      </c>
+      <c r="F232" t="s">
+        <v>587</v>
+      </c>
+      <c r="G232" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233">
+        <v>285</v>
+      </c>
+      <c r="B233" t="s">
+        <v>588</v>
+      </c>
+      <c r="C233" t="s">
+        <v>438</v>
+      </c>
+      <c r="D233">
+        <v>37</v>
+      </c>
+      <c r="E233" t="s">
+        <v>88</v>
+      </c>
+      <c r="F233" t="s">
+        <v>589</v>
+      </c>
+      <c r="G233" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234">
+        <v>286</v>
+      </c>
+      <c r="B234" t="s">
+        <v>590</v>
+      </c>
+      <c r="C234" t="s">
+        <v>460</v>
+      </c>
+      <c r="D234">
+        <v>39</v>
+      </c>
+      <c r="E234" t="s">
+        <v>50</v>
+      </c>
+      <c r="F234" t="s">
+        <v>591</v>
+      </c>
+      <c r="G234" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235">
+        <v>287</v>
+      </c>
+      <c r="B235" t="s">
+        <v>592</v>
+      </c>
+      <c r="C235" t="s">
+        <v>484</v>
+      </c>
+      <c r="D235">
+        <v>39</v>
+      </c>
+      <c r="E235" t="s">
+        <v>9</v>
+      </c>
+      <c r="F235" t="s">
+        <v>593</v>
+      </c>
+      <c r="G235" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236">
+        <v>288</v>
+      </c>
+      <c r="B236" t="s">
+        <v>594</v>
+      </c>
+      <c r="C236" t="s">
+        <v>193</v>
+      </c>
+      <c r="D236">
+        <v>67</v>
+      </c>
+      <c r="E236" t="s">
+        <v>17</v>
+      </c>
+      <c r="F236" t="s">
+        <v>595</v>
+      </c>
+      <c r="G236" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237">
+        <v>289</v>
+      </c>
+      <c r="B237" t="s">
+        <v>596</v>
+      </c>
+      <c r="C237" t="s">
+        <v>63</v>
+      </c>
+      <c r="D237">
+        <v>26</v>
+      </c>
+      <c r="E237" t="s">
+        <v>31</v>
+      </c>
+      <c r="F237" t="s">
+        <v>597</v>
+      </c>
+      <c r="G237" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238">
+        <v>290</v>
+      </c>
+      <c r="B238" t="s">
+        <v>598</v>
+      </c>
+      <c r="C238" t="s">
+        <v>63</v>
+      </c>
+      <c r="D238">
+        <v>27</v>
+      </c>
+      <c r="E238" t="s">
+        <v>31</v>
+      </c>
+      <c r="F238" t="s">
+        <v>599</v>
+      </c>
+      <c r="G238" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239">
+        <v>291</v>
+      </c>
+      <c r="B239" t="s">
+        <v>600</v>
+      </c>
+      <c r="C239" t="s">
+        <v>447</v>
+      </c>
+      <c r="D239">
+        <v>26</v>
+      </c>
+      <c r="E239" t="s">
+        <v>31</v>
+      </c>
+      <c r="F239" t="s">
+        <v>601</v>
+      </c>
+      <c r="G239" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240">
+        <v>292</v>
+      </c>
+      <c r="B240" t="s">
+        <v>602</v>
+      </c>
+      <c r="C240" t="s">
+        <v>447</v>
+      </c>
+      <c r="D240">
+        <v>21</v>
+      </c>
+      <c r="E240" t="s">
+        <v>31</v>
+      </c>
+      <c r="F240" t="s">
+        <v>603</v>
+      </c>
+      <c r="G240" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241">
+        <v>293</v>
+      </c>
+      <c r="B241" t="s">
+        <v>604</v>
+      </c>
+      <c r="C241" t="s">
+        <v>471</v>
+      </c>
+      <c r="D241">
+        <v>73</v>
+      </c>
+      <c r="E241" t="s">
+        <v>88</v>
+      </c>
+      <c r="F241" t="s">
+        <v>605</v>
+      </c>
+      <c r="G241" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242">
+        <v>294</v>
+      </c>
+      <c r="B242" t="s">
+        <v>606</v>
+      </c>
+      <c r="C242" t="s">
+        <v>507</v>
+      </c>
+      <c r="D242">
+        <v>47</v>
+      </c>
+      <c r="E242" t="s">
+        <v>607</v>
+      </c>
+      <c r="F242" t="s">
+        <v>608</v>
+      </c>
+      <c r="G242" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243">
+        <v>295</v>
+      </c>
+      <c r="B243" t="s">
+        <v>609</v>
+      </c>
+      <c r="C243" t="s">
+        <v>294</v>
+      </c>
+      <c r="D243">
+        <v>69</v>
+      </c>
+      <c r="E243" t="s">
+        <v>46</v>
+      </c>
+      <c r="F243" t="s">
+        <v>610</v>
+      </c>
+      <c r="G243" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244">
+        <v>296</v>
+      </c>
+      <c r="B244" t="s">
+        <v>611</v>
+      </c>
+      <c r="C244" t="s">
+        <v>387</v>
+      </c>
+      <c r="D244">
+        <v>82</v>
+      </c>
+      <c r="E244" t="s">
+        <v>36</v>
+      </c>
+      <c r="F244" t="s">
+        <v>612</v>
+      </c>
+      <c r="G244" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245">
+        <v>297</v>
+      </c>
+      <c r="B245" t="s">
+        <v>613</v>
+      </c>
+      <c r="C245" t="s">
+        <v>197</v>
+      </c>
+      <c r="D245">
+        <v>68</v>
+      </c>
+      <c r="E245" t="s">
+        <v>31</v>
+      </c>
+      <c r="F245" t="s">
+        <v>614</v>
+      </c>
+      <c r="G245" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246">
+        <v>298</v>
+      </c>
+      <c r="B246" t="s">
+        <v>615</v>
+      </c>
+      <c r="C246" t="s">
+        <v>204</v>
+      </c>
+      <c r="D246">
+        <v>78</v>
+      </c>
+      <c r="E246" t="s">
+        <v>36</v>
+      </c>
+      <c r="F246" t="s">
+        <v>616</v>
+      </c>
+      <c r="G246" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247">
+        <v>299</v>
+      </c>
+      <c r="B247" t="s">
+        <v>617</v>
+      </c>
+      <c r="C247" t="s">
+        <v>447</v>
+      </c>
+      <c r="D247">
+        <v>27</v>
+      </c>
+      <c r="E247" t="s">
+        <v>31</v>
+      </c>
+      <c r="F247" t="s">
+        <v>618</v>
+      </c>
+      <c r="G247" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248">
+        <v>300</v>
+      </c>
+      <c r="B248" t="s">
+        <v>620</v>
+      </c>
+      <c r="C248" t="s">
+        <v>621</v>
+      </c>
+      <c r="D248">
+        <v>3</v>
+      </c>
+      <c r="E248" t="s">
+        <v>123</v>
+      </c>
+      <c r="F248" t="s">
+        <v>622</v>
+      </c>
+      <c r="G248" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249">
+        <v>301</v>
+      </c>
+      <c r="B249" t="s">
+        <v>623</v>
+      </c>
+      <c r="C249" t="s">
+        <v>224</v>
+      </c>
+      <c r="D249">
+        <v>76</v>
+      </c>
+      <c r="E249" t="s">
+        <v>50</v>
+      </c>
+      <c r="F249" t="s">
+        <v>624</v>
+      </c>
+      <c r="G249" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250">
+        <v>302</v>
+      </c>
+      <c r="B250" t="s">
+        <v>625</v>
+      </c>
+      <c r="C250" t="s">
+        <v>447</v>
+      </c>
+      <c r="D250">
+        <v>37</v>
+      </c>
+      <c r="E250" t="s">
+        <v>88</v>
+      </c>
+      <c r="F250" t="s">
+        <v>626</v>
+      </c>
+      <c r="G250" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251">
+        <v>303</v>
+      </c>
+      <c r="B251" t="s">
+        <v>627</v>
+      </c>
+      <c r="C251" t="s">
+        <v>87</v>
+      </c>
+      <c r="D251">
+        <v>18</v>
+      </c>
+      <c r="E251" t="s">
+        <v>31</v>
+      </c>
+      <c r="F251" t="s">
+        <v>628</v>
+      </c>
+      <c r="G251" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252">
+        <v>304</v>
+      </c>
+      <c r="B252" t="s">
+        <v>629</v>
+      </c>
+      <c r="C252" t="s">
+        <v>312</v>
+      </c>
+      <c r="D252">
+        <v>86</v>
+      </c>
+      <c r="E252" t="s">
+        <v>36</v>
+      </c>
+      <c r="F252" t="s">
+        <v>630</v>
+      </c>
+      <c r="G252" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253">
+        <v>305</v>
+      </c>
+      <c r="B253" t="s">
+        <v>631</v>
+      </c>
+      <c r="C253" t="s">
+        <v>75</v>
+      </c>
+      <c r="D253">
+        <v>21</v>
+      </c>
+      <c r="E253" t="s">
+        <v>82</v>
+      </c>
+      <c r="F253" t="s">
+        <v>632</v>
+      </c>
+      <c r="G253" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254">
+        <v>306</v>
+      </c>
+      <c r="B254" t="s">
+        <v>633</v>
+      </c>
+      <c r="C254" t="s">
+        <v>447</v>
+      </c>
+      <c r="D254">
+        <v>30</v>
+      </c>
+      <c r="E254" t="s">
+        <v>36</v>
+      </c>
+      <c r="F254" t="s">
+        <v>634</v>
+      </c>
+      <c r="G254" t="s">
+        <v>634</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
